--- a/imageCreationExcel/back/darkyobi/darkyobi_13.xlsx
+++ b/imageCreationExcel/back/darkyobi/darkyobi_13.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,15 +495,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.562340202212824</v>
+        <v>9.497666478500662</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.9566303077907845</v>
+        <v>1.061501065949395</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.689532010222305</v>
+        <v>0.3213213997281925</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_I_brightness5.6_gamma0.96_sharpness0.69.jpg</t>
+          <t>1_S_brightness9.5_contrast1.1_sharpness0.32.jpg</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,30 +537,30 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.051388561341755</v>
+        <v>1.041533445277119</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9600682806728132</v>
+        <v>1.000261520053683</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>16.2874559996801</v>
+        <v>0.5341189938469832</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_9_gamma1.1_sharpness0.96_equalization16.0.jpg</t>
+          <t>2_1_gamma1.0_contrast1.0_sharpness0.53.jpg</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,30 +579,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.3432307647013626</v>
+        <v>0.7855389587040912</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>21.68213064056292</v>
+        <v>0.9929898235629235</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.9182515943213335</v>
+        <v>1.065805403586323</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_T_sharpness0.34_brightness22.0_contrast0.92.jpg</t>
+          <t>3_E_sharpness0.79_contrast0.99_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -612,24 +612,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.998819691037615</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>17.73428614741239</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F5" t="n">
-        <v>0.9563224415136313</v>
+        <v>17.01979701269543</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.6874222696570484</v>
+        <v>0.1616038256673193</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_8_brightness18.0_contrast0.96_sharpness0.69.jpg</t>
+          <t>4_1_contrast1.0_brightness17.0_sharpness0.16.jpg</t>
         </is>
       </c>
     </row>
@@ -663,30 +663,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.014172241008148</v>
+        <v>1.038948448475418</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>24.48591061327544</v>
+        <v>0.8107380344700502</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.5266123744742299</v>
+        <v>12.73950923871976</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_B_contrast1.0_brightness24.0_gamma0.53.jpg</t>
+          <t>5_B_contrast1.0_gamma0.81_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.190332733597298</v>
+        <v>0.935557655231509</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.5833171087740138</v>
+        <v>0.9553726427653058</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>14.95769036853101</v>
+        <v>26.11058911557974</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_7_sharpness0.19_gamma0.58_equalization15.0.jpg</t>
+          <t>6_3_gamma0.94_contrast0.96_brightness26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6.829895387961155</v>
+        <v>0.9606899736329555</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.051027270275667</v>
+        <v>0.1051936728813535</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.047294939444563</v>
+        <v>6.506486268237666</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_T_brightness6.8_contrast1.1_gamma1.0.jpg</t>
+          <t>7_1_contrast0.96_sharpness0.11_equalization6.5.jpg</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.07624470102534109</v>
+        <v>0.2561337666846495</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9222986769486792</v>
+        <v>0.8062805107817219</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.8726579713313749</v>
+        <v>21.69774665204815</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_7_sharpness0.076_gamma0.92_contrast0.87.jpg</t>
+          <t>8_2_sharpness0.26_gamma0.81_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -822,39 +822,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.1288598950943725</v>
+        <v>12.64977355308961</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.9308428162682729</v>
+        <v>0.9325461993155272</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6.84203420971853</v>
+        <v>0.9393163036780671</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_T_sharpness0.13_contrast0.93_equalization6.8.jpg</t>
+          <t>9_3_brightness13.0_gamma0.93_contrast0.94.jpg</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -873,30 +873,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.1409739668855647</v>
+        <v>0.1675148456772293</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.180966800598261</v>
+        <v>0.9678449591815594</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.142912886677889</v>
+        <v>14.51101905791173</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_1_sharpness0.14_brightness5.2_contrast1.1.jpg</t>
+          <t>10_2_sharpness0.17_contrast0.97_equalization15.0.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.012801532169779</v>
+        <v>0.8907634512329334</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,22 +923,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.8450487491886658</v>
+        <v>0.8864536499199621</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>15.38446292700182</v>
+        <v>0.8445939479297412</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_B_gamma1.0_contrast0.85_equalization15.0.jpg</t>
+          <t>11_8_gamma0.89_contrast0.89_sharpness0.84.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.011102062321216</v>
+        <v>26.72244733068172</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.679298842653943</v>
+        <v>0.2740581448232029</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>25.32664708042737</v>
+        <v>0.9669664470831427</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_E_contrast1.0_gamma0.68_equalization25.0.jpg</t>
+          <t>12_9_brightness27.0_sharpness0.27_contrast0.97.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7.732962813894563</v>
+        <v>1.038106858460048</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9454165640049292</v>
+        <v>0.8143926965707982</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.8126169650806427</v>
+        <v>16.32461560585555</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_8_brightness7.7_gamma0.95_sharpness0.81.jpg</t>
+          <t>13_9_gamma1.0_contrast0.81_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,24 +1032,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9104051513814982</v>
+        <v>0.7084578193661859</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9331341230100034</v>
+        <v>0.6527191870374036</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>19.44715169724676</v>
+        <v>20.22895749501523</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_C_sharpness0.91_contrast0.93_equalization19.0.jpg</t>
+          <t>14_E_gamma0.71_sharpness0.65_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,16 +1074,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.097229070018859</v>
+        <v>0.4501667796110903</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.116504518071828</v>
+        <v>0.8751799789978816</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1099,14 +1099,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>19.6425732498025</v>
+        <v>19.91919260306956</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_7_gamma1.1_contrast1.1_equalization20.0.jpg</t>
+          <t>15_T_sharpness0.45_contrast0.88_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1125,30 +1125,30 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9578068849194046</v>
+        <v>0.945823122440986</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9172782056520012</v>
+        <v>29.28461102633463</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6.063552895397502</v>
+        <v>0.8626885674148005</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_I_sharpness0.96_gamma0.92_equalization6.1.jpg</t>
+          <t>16_9_sharpness0.95_brightness29.0_contrast0.86.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1167,30 +1167,30 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.6570038349067101</v>
+        <v>0.7099191491838605</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.194750305906223</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>0.2784284516648794</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="H18" t="n">
-        <v>0.6082736147795372</v>
+        <v>29.98919287835792</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_T_gamma0.66_brightness0.28_sharpness0.61.jpg</t>
+          <t>17_E_gamma0.71_contrast1.2_brightness30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>26.86971325806245</v>
+        <v>1.052492132246919</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.1255309672373317</v>
+        <v>1.080805521616674</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.6904150672092876</v>
+        <v>18.41716055687302</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_B_brightness27.0_sharpness0.13_gamma0.69.jpg</t>
+          <t>18_S_contrast1.1_gamma1.1_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.8102785487270607</v>
+        <v>1.135903859931442</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.8668983098196699</v>
+        <v>0.894609784159404</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.496409524975189</v>
+        <v>29.54059224399706</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_E_gamma0.81_contrast0.87_sharpness0.5.jpg</t>
+          <t>19_T_contrast1.1_sharpness0.89_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,30 +1293,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.690223784087309</v>
+        <v>0.8811349210726103</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.019349341481292</v>
+        <v>15.65562111863701</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9.454406414728192</v>
+        <v>0.9770991006619355</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_I_gamma0.69_contrast1.0_brightness9.5.jpg</t>
+          <t>20_2_gamma0.88_brightness16.0_contrast0.98.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.7813540234284433</v>
+        <v>0.8390433540089399</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9540949520234437</v>
+        <v>0.9246349607202753</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>14.84996661859716</v>
+        <v>8.464849973401222</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_1_sharpness0.78_gamma0.95_equalization15.0.jpg</t>
+          <t>21_9_gamma0.84_contrast0.92_brightness8.5.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.04226164505513241</v>
+        <v>0.9428982778507454</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>14.42314185477395</v>
+        <v>0.009673686821485061</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1.019249929365248</v>
+        <v>0.8453694060741158</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_8_sharpness0.042_brightness14.0_gamma1.0.jpg</t>
+          <t>22_7_gamma0.94_sharpness0.0097_contrast0.85.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.60601539751655</v>
+        <v>0.76333136851865</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1427,22 +1427,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9269634940294176</v>
+        <v>1.177489643008342</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>25.55022263554877</v>
+        <v>15.11179583990648</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_I_gamma0.61_contrast0.93_brightness26.0.jpg</t>
+          <t>23_2_gamma0.76_contrast1.2_equalization15.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,24 +1452,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.6992722641531783</v>
+        <v>1.045598022593206</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.7739375971609579</v>
+        <v>1.026387441505013</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6.91291473567264</v>
+        <v>22.17023042167273</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_1_sharpness0.7_gamma0.77_equalization6.9.jpg</t>
+          <t>24_C_gamma1.0_contrast1.0_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,16 +1494,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.023748781211773</v>
+        <v>0.2185572319931393</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,22 +1511,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9386607774233249</v>
+        <v>0.9679911461418956</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.383752244190857</v>
+        <v>26.22156356496961</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_3_gamma1.0_contrast0.94_sharpness0.38.jpg</t>
+          <t>25_1_sharpness0.22_contrast0.97_brightness26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1545,30 +1545,30 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.2552047417947687</v>
+        <v>0.4739101486588446</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>8.617336921007549</v>
+        <v>0.7879982855728827</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.7265058526099839</v>
+        <v>18.90016379257644</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_C_sharpness0.26_brightness8.6_gamma0.73.jpg</t>
+          <t>26_C_sharpness0.47_gamma0.79_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,24 +1578,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.500957712272437</v>
+        <v>0.4744547755402873</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.072719892347457</v>
+        <v>0.5232317480924149</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>14.81358450446476</v>
+        <v>11.23497490146401</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_B_gamma0.5_contrast1.1_equalization15.0.jpg</t>
+          <t>27_2_sharpness0.47_gamma0.52_equalization11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1629,30 +1629,30 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.7403209637821854</v>
+        <v>0.8796743936921618</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>17.14465297967749</v>
+        <v>1.069696738447389</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1.112134526335799</v>
+        <v>0.5396997334063033</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_3_sharpness0.74_brightness17.0_contrast1.1.jpg</t>
+          <t>28_9_sharpness0.88_contrast1.1_gamma0.54.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.1361039307824368</v>
+        <v>0.5824548752919685</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.8118647717634556</v>
+        <v>0.902527448221398</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>21.96611254889202</v>
+        <v>16.39337414803902</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_I_sharpness0.14_contrast0.81_brightness22.0.jpg</t>
+          <t>29_C_sharpness0.58_contrast0.9_brightness16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1713,30 +1713,30 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.9851503960343559</v>
+        <v>0.8940862117451822</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>16.50750032269367</v>
+        <v>1.047191996554119</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1.079031346829464</v>
+        <v>11.9115621282055</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_I_gamma0.99_brightness17.0_contrast1.1.jpg</t>
+          <t>30_9_gamma0.89_contrast1.0_equalization12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.8137324391176162</v>
+        <v>0.7179686038442348</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.1399465651058047</v>
+        <v>13.51802738546282</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6.36836716189415</v>
+        <v>1.171237360749309</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_3_contrast0.81_sharpness0.14_equalization6.4.jpg</t>
+          <t>31_B_sharpness0.72_brightness14.0_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,39 +1788,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.027543945415168</v>
+        <v>0.9000189157842654</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.185018198714983</v>
+        <v>26.47688633032897</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>23.07978843322734</v>
+        <v>0.9655018474962618</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_S_gamma1.0_contrast1.2_equalization23.0.jpg</t>
+          <t>32_2_contrast0.9_brightness26.0_gamma0.97.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,16 +1830,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.9559290589667379</v>
+        <v>0.5641181011793758</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>23.68109416300218</v>
+        <v>9.597775575963981</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.697902778354854</v>
+        <v>1.14323905598727</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_9_contrast0.96_brightness24.0_sharpness0.7.jpg</t>
+          <t>33_P_gamma0.56_brightness9.6_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,39 +1872,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.6743122999116736</v>
+        <v>0.7412336171026543</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.4602150539887923</v>
+        <v>1.022030652411218</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1.144518859801561</v>
+        <v>13.51296993098331</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_9_gamma0.67_sharpness0.46_contrast1.1.jpg</t>
+          <t>34_I_sharpness0.74_contrast1.0_brightness14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.2055576687913988</v>
+        <v>0.8818985486716857</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.018457361681787</v>
+        <v>0.0501988521254142</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.6787068028566062</v>
+        <v>1.085954292756474</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_P_sharpness0.21_contrast1.0_gamma0.68.jpg</t>
+          <t>35_9_gamma0.88_sharpness0.05_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,24 +1956,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.3925038679253708</v>
+        <v>0.8599003681062083</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.010042191779216</v>
+        <v>0.9973041841234945</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>12.97333743478335</v>
+        <v>20.48482495502421</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_2_sharpness0.39_gamma1.0_equalization13.0.jpg</t>
+          <t>36_0_contrast0.86_sharpness1.0_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2007,30 +2007,30 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.02498867395872</v>
+        <v>0.9862309773639876</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6.416240635070669</v>
+        <v>0.8242377282709956</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.8765185624088904</v>
+        <v>30.50353404680697</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_7_contrast1.0_brightness6.4_sharpness0.88.jpg</t>
+          <t>37_8_contrast0.99_gamma0.82_equalization31.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.633879984323185</v>
+        <v>0.4030763064783249</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.8683135138058496</v>
+        <v>25.88871049308544</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>26.83671126443208</v>
+        <v>0.9513810289255015</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_8_gamma0.63_sharpness0.87_equalization27.0.jpg</t>
+          <t>38_E_sharpness0.4_brightness26.0_contrast0.95.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.501598100639538</v>
+        <v>0.9950425947354595</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.092281678455195</v>
+        <v>1.023068190571271</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>16.4699760649804</v>
+        <v>28.91918785531758</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_T_gamma0.5_contrast1.1_equalization16.0.jpg</t>
+          <t>39_7_gamma1.0_contrast1.0_equalization29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2.194193495512164</v>
+        <v>7.335654449974967</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.3318538262976745</v>
+        <v>0.5940587964617028</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2149,14 +2149,14 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.9372493686107067</v>
+        <v>1.005360053259224</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_T_brightness2.2_sharpness0.33_contrast0.94.jpg</t>
+          <t>40_B_brightness7.3_sharpness0.59_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,39 +2166,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>26.2188239030971</v>
+        <v>0.965994396341565</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9762236300113027</v>
+        <v>0.4625128809363225</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.4435814373180176</v>
+        <v>4.975271381926474</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_7_brightness26.0_contrast0.98_sharpness0.44.jpg</t>
+          <t>41_T_contrast0.97_sharpness0.46_equalization5.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.037651572364777</v>
+        <v>1.103968250474809</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.078194629239141</v>
+        <v>0.9070243821010889</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>31.51750987771808</v>
+        <v>15.93790565025882</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_8_contrast1.0_gamma1.1_equalization32.0.jpg</t>
+          <t>42_7_contrast1.1_gamma0.91_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,16 +2250,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.8552779241931701</v>
+        <v>27.02233842453917</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.9085579185501179</v>
+        <v>0.7364949548450548</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.1147529720908314</v>
+        <v>0.52935242935417</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_S_contrast0.86_gamma0.91_sharpness0.11.jpg</t>
+          <t>43_7_brightness27.0_gamma0.74_sharpness0.53.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,39 +2292,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.6193940308112589</v>
+        <v>0.9020295987246448</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.8897814165111474</v>
+        <v>0.863001138260419</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.06545693982319345</v>
+        <v>25.40410895687975</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_2_gamma0.62_contrast0.89_sharpness0.065.jpg</t>
+          <t>44_0_contrast0.9_sharpness0.86_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.9372166916385346</v>
+        <v>0.576023814919548</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2351,22 +2351,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.2326656474317271</v>
+        <v>0.9272884030362024</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>16.65748026612141</v>
+        <v>1.012479892258881</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_9_gamma0.94_sharpness0.23_equalization17.0.jpg</t>
+          <t>45_2_gamma0.58_sharpness0.93_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.154162413429723</v>
+        <v>0.6404160199024481</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.086027679873836</v>
+        <v>5.850667468658642</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.4676747918809094</v>
+        <v>1.015644048955527</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_0_contrast1.2_gamma1.1_sharpness0.47.jpg</t>
+          <t>46_I_gamma0.64_brightness5.9_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,39 +2418,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.989998739356264</v>
+        <v>14.37712498508966</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.6442523340304838</v>
+        <v>1.118827761868421</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>12.58702222533596</v>
+        <v>0.5372865158046087</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_3_contrast0.99_gamma0.64_equalization13.0.jpg</t>
+          <t>47_C_brightness14.0_contrast1.1_gamma0.54.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,39 +2460,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9704806715959513</v>
+        <v>0.2355365115551017</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.04596665702859</v>
+        <v>0.9890706477758242</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>11.96698029661817</v>
+        <v>17.9598444278836</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_C_contrast0.97_gamma1.0_equalization12.0.jpg</t>
+          <t>48_T_sharpness0.24_contrast0.99_brightness18.0.jpg</t>
         </is>
       </c>
     </row>
